--- a/FEDEX/split_datasets/FEDEX(564).xlsx
+++ b/FEDEX/split_datasets/FEDEX(564).xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,16 @@
           <t>REMARKS</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Current Location</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Last Update</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -566,6 +576,16 @@
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -624,6 +644,16 @@
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -682,6 +712,16 @@
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -740,6 +780,16 @@
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>DELIVERY STATUS</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -798,6 +848,16 @@
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>DELIVERY STATUS</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -852,10 +912,20 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>Delivered</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>DELIVERY STATUS</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -910,10 +980,20 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -968,10 +1048,20 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1026,10 +1116,20 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1084,10 +1184,20 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1142,10 +1252,20 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1200,10 +1320,20 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1258,10 +1388,20 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1316,10 +1456,20 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1374,10 +1524,20 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1432,10 +1592,20 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1490,10 +1660,20 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1548,11 +1728,20 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t xml:space="preserve">delivered
-</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1607,10 +1796,20 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1665,10 +1864,20 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1723,10 +1932,20 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1781,10 +2000,20 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1839,10 +2068,20 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1897,10 +2136,20 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1955,10 +2204,20 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2013,10 +2272,20 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2071,10 +2340,20 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2129,10 +2408,20 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2187,10 +2476,20 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2245,10 +2544,20 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2307,10 +2616,20 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2367,10 +2686,20 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2427,10 +2756,20 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2487,10 +2826,20 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2547,10 +2896,20 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2607,10 +2966,20 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2667,10 +3036,20 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2729,10 +3108,20 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2789,10 +3178,20 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2849,10 +3248,20 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2909,10 +3318,20 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2969,10 +3388,20 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3029,10 +3458,20 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3089,10 +3528,20 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3149,10 +3598,20 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3209,10 +3668,20 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3269,10 +3738,20 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3329,10 +3808,20 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3389,10 +3878,20 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3449,10 +3948,20 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3509,10 +4018,20 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3569,10 +4088,20 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3629,10 +4158,20 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3689,11 +4228,20 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHANGHAI CN[clearance delay]
-</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3750,10 +4298,20 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3810,11 +4368,20 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAMPINAS BR
-</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3871,10 +4438,20 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3931,10 +4508,20 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3991,10 +4578,20 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4051,10 +4648,20 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4111,10 +4718,20 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4171,11 +4788,20 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN
-</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4232,10 +4858,20 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>HYDERABAD, TS IN</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4292,11 +4928,20 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEMPHIS, TN
-</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4353,11 +4998,20 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t xml:space="preserve">COLOMBO LK
-</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4414,10 +5068,20 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4474,10 +5138,20 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4534,10 +5208,20 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4594,10 +5278,20 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4654,11 +5348,20 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATRAVILLE AU
-</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4715,11 +5418,20 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t xml:space="preserve">INCHEON-SI KR
-</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4776,11 +5488,20 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t xml:space="preserve">BANGALORE IN
-</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4837,10 +5558,20 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>HYDERABAD, TS IN</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4897,11 +5628,20 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t xml:space="preserve">BASEL CH
-</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4958,10 +5698,20 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>K.V.RANGAREDDY, TS IN</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5018,10 +5768,20 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>BANGALORE IN</t>
+          <t>In Transit</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5076,8 +5836,22 @@
       <c r="L78" t="n">
         <v>886475107910</v>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5132,8 +5906,22 @@
       <c r="L79" t="n">
         <v>886512556825</v>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5188,8 +5976,22 @@
       <c r="L80" t="n">
         <v>886516894381</v>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5244,8 +6046,22 @@
       <c r="L81" t="n">
         <v>886520010390</v>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5300,8 +6116,22 @@
       <c r="L82" t="n">
         <v>886520916393</v>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5356,8 +6186,22 @@
       <c r="L83" t="n">
         <v>886520976940</v>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>In Transit</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>GREENWOOD, IN, US</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>2023-05-19T19:03:00-04:00</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
